--- a/nop-rule/model/nop-rule.orm.xlsx
+++ b/nop-rule/model/nop-rule.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C385FF6-BEF8-4EDA-AF9B-7FDB57C69C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47975B0-5F22-442C-88D3-507B6A86A9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="602" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="602" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="253">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -802,14 +802,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SCHEMA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -903,10 +895,6 @@
   </si>
   <si>
     <t>判断条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json-4000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1055,6 +1043,46 @@
   </si>
   <si>
     <t>xml-4k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_MANDATORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is Mandatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_COMPUTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is Computed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json-4k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGG_METHOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aggregate Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1295,7 +1323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1380,6 +1408,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1443,6 +1480,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1470,13 +1528,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1488,28 +1540,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2030,7 +2061,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2050,134 +2081,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="40"/>
       <c r="N1" s="16"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="37"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="40"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -2444,243 +2475,236 @@
       <c r="P14" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="68"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="54"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="69">
+      <c r="A17" s="28">
         <v>1</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="58" t="s">
+      <c r="H17" s="39"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="60"/>
-      <c r="M17" s="46" t="s">
+      <c r="L17" s="58"/>
+      <c r="M17" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="51"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="48"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
-      <c r="B18" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="58" t="s">
+      <c r="I18" s="41"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="60"/>
-      <c r="M18" s="46" t="s">
+      <c r="L18" s="58"/>
+      <c r="M18" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="48"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="51"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
-      <c r="B19" s="64" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="37"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="40"/>
       <c r="K19" s="17"/>
       <c r="L19" s="18"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="48"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="51"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
-      <c r="B20" s="64" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="58" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="60"/>
-      <c r="M20" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="48"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="51"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
-      <c r="B21" s="49" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="51"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="61"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="70"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="60"/>
-      <c r="I22" s="58" t="s">
+      <c r="H22" s="58"/>
+      <c r="I22" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="60"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="62"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="70"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="70"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="8">
         <v>1</v>
       </c>
-      <c r="C23" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
+      <c r="C23" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="H23" s="54"/>
+      <c r="G23" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="H23" s="64"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="56"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="66"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="54"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="64"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="56"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
     <mergeCell ref="A16:P16"/>
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="B17:C17"/>
@@ -2697,19 +2721,26 @@
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2883,7 +2914,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3054,7 +3085,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>95</v>
@@ -3220,10 +3251,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>28</v>
@@ -3289,8 +3320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C81811-AE0A-410A-ADF7-9B7CA65ED4B7}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3299,34 +3330,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="69">
+      <c r="A1" s="28">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="22" t="s">
         <v>155</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="37"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="22" t="s">
         <v>157</v>
       </c>
@@ -3335,29 +3366,29 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="24" t="s">
         <v>160</v>
       </c>
@@ -3378,7 +3409,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="23">
         <v>1</v>
       </c>
@@ -3395,7 +3426,7 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="70"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="23">
         <v>2</v>
       </c>
@@ -3412,7 +3443,7 @@
       <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="70"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="23"/>
       <c r="C8" s="27"/>
       <c r="D8" s="26"/>
@@ -3421,13 +3452,13 @@
       <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3450,8 +3481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8E42C9-C05B-4E62-A510-6D91D5B4B214}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3472,132 +3503,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4164,22 +4195,22 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="37"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="40"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
@@ -4188,20 +4219,20 @@
       <c r="C26" s="12"/>
     </row>
     <row r="27" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4228,10 +4259,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4252,132 +4283,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
+      <c r="I2" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4540,25 +4571,23 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>60</v>
+        <v>243</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="20">
-        <v>200</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="K11" s="72"/>
       <c r="L11" s="7"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -4572,23 +4601,23 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="7"/>
+        <v>248</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="20">
-        <v>200</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="K12" s="72"/>
       <c r="L12" s="7"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -4602,23 +4631,23 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="7">
+        <v>28</v>
+      </c>
+      <c r="K13" s="20">
         <v>200</v>
       </c>
       <c r="L13" s="7"/>
@@ -4634,24 +4663,22 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>245</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H14" s="9"/>
       <c r="I14" s="7"/>
       <c r="J14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="7">
-        <v>4000</v>
+      <c r="K14" s="20">
+        <v>1000</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="9"/>
@@ -4666,16 +4693,18 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="9" t="s">
         <v>28</v>
@@ -4696,27 +4725,23 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>103</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K16" s="7">
+        <v>4000</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -4730,27 +4755,27 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="F17" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="7">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -4764,25 +4789,27 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K18" s="7">
+        <v>50</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -4796,27 +4823,25 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="7">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -4830,25 +4855,27 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K20" s="7">
+        <v>50</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -4862,27 +4889,25 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E21" s="7"/>
       <c r="F21" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7">
-        <v>200</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -4890,17 +4915,33 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+      <c r="A22" s="7">
+        <v>15</v>
+      </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="7"/>
+      <c r="J22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="7">
+        <v>200</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -4908,263 +4949,303 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="37"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="66" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="39"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="40"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="68"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="69">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="54"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="28">
         <v>1</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B27" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="36" t="s">
+      <c r="C27" s="56"/>
+      <c r="D27" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="36" t="s">
+      <c r="I27" s="41"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="58"/>
+      <c r="M27" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="51"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="56"/>
+      <c r="D28" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" s="41"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="58"/>
+      <c r="M28" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="51"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+      <c r="B29" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="56"/>
+      <c r="D29" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="I26" s="38"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="L26" s="60"/>
-      <c r="M26" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="48"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="70"/>
-      <c r="B27" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="36" t="s">
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="I29" s="41"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="51"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="29"/>
+      <c r="B30" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="56"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="58"/>
+      <c r="M30" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="I27" s="38"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="L27" s="60"/>
-      <c r="M27" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="48"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="70"/>
-      <c r="B28" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="I28" s="38"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="48"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="70"/>
-      <c r="B29" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29" s="60"/>
-      <c r="M29" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="48"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="70"/>
-      <c r="B30" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="49"/>
       <c r="N30" s="50"/>
       <c r="O30" s="50"/>
       <c r="P30" s="51"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="70"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="29"/>
+      <c r="B31" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="61"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
+      <c r="B32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C32" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="17" t="s">
+      <c r="D32" s="68"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="58" t="s">
+      <c r="G32" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="60"/>
-      <c r="I31" s="58" t="s">
+      <c r="H32" s="58"/>
+      <c r="I32" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="60"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="62"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="70"/>
-      <c r="B32" s="8">
+      <c r="J32" s="58"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="70"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="29"/>
+      <c r="B33" s="8">
         <v>1</v>
       </c>
-      <c r="C32" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="H32" s="54"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="56"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="70"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
+      <c r="C33" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="54"/>
+      <c r="G33" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="H33" s="64"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="56"/>
-    </row>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="66"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="66"/>
+    </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:J30"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -5177,44 +5258,6 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5223,10 +5266,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5247,132 +5290,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
+      <c r="I2" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -5535,25 +5578,23 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>60</v>
+        <v>243</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="20">
-        <v>200</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -5567,22 +5608,24 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="7"/>
+        <v>251</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="20">
-        <v>200</v>
+      <c r="K12" s="7">
+        <v>10</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="9"/>
@@ -5597,21 +5640,21 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="7">
         <v>200</v>
@@ -5629,24 +5672,22 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>245</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H14" s="9"/>
       <c r="I14" s="7"/>
       <c r="J14" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="7">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="9"/>
@@ -5661,16 +5702,18 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="9" t="s">
         <v>28</v>
@@ -5691,27 +5734,23 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>103</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K16" s="7">
+        <v>4000</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -5725,27 +5764,27 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="F17" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="7">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -5759,25 +5798,27 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K18" s="7">
+        <v>50</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -5791,27 +5832,25 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="7">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -5825,25 +5864,27 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K20" s="7">
+        <v>50</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -5857,27 +5898,25 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E21" s="7"/>
       <c r="F21" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7">
-        <v>200</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -5885,17 +5924,33 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+      <c r="A22" s="7">
+        <v>15</v>
+      </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="7"/>
+      <c r="J22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="7">
+        <v>200</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -5903,284 +5958,265 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="37"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="66" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="39"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="40"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="68"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="69">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="54"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="28">
         <v>1</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B27" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="2" t="s">
+      <c r="C27" s="56"/>
+      <c r="D27" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="I26" s="38"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="58" t="s">
+      <c r="H27" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="I27" s="41"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="60"/>
-      <c r="M26" s="46" t="s">
+      <c r="L27" s="58"/>
+      <c r="M27" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="51"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="56"/>
+      <c r="D28" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="48"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="70"/>
-      <c r="B27" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="36" t="s">
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" s="41"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="58"/>
+      <c r="M28" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="51"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+      <c r="B29" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="56"/>
+      <c r="D29" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I29" s="41"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="51"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="29"/>
+      <c r="B30" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="56"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="58"/>
+      <c r="M30" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="I27" s="38"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="L27" s="60"/>
-      <c r="M27" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="48"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="70"/>
-      <c r="B28" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="I28" s="38"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="48"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="70"/>
-      <c r="B29" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29" s="60"/>
-      <c r="M29" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="48"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="70"/>
-      <c r="B30" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="49"/>
       <c r="N30" s="50"/>
       <c r="O30" s="50"/>
       <c r="P30" s="51"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="70"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="29"/>
+      <c r="B31" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="61"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
+      <c r="B32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C32" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="17" t="s">
+      <c r="D32" s="68"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="58" t="s">
+      <c r="G32" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="60"/>
-      <c r="I31" s="58" t="s">
+      <c r="H32" s="58"/>
+      <c r="I32" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="60"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="62"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="70"/>
-      <c r="B32" s="8">
+      <c r="J32" s="58"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="70"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="29"/>
+      <c r="B33" s="8">
         <v>1</v>
       </c>
-      <c r="C32" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="H32" s="54"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="56"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="70"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
+      <c r="C33" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="54"/>
+      <c r="G33" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="H33" s="64"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="56"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="66"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I1:M1"/>
@@ -6194,6 +6230,43 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6204,8 +6277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C32C7CF-B3F4-4DAF-B908-118F3127E9A6}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6226,132 +6299,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
+      <c r="I2" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -6482,14 +6555,14 @@
         <v>105</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -6514,14 +6587,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -6544,17 +6617,17 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>27</v>
@@ -6578,17 +6651,17 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="9" t="s">
@@ -6609,17 +6682,17 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
@@ -6641,26 +6714,24 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>94</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>108</v>
+        <v>245</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -6888,455 +6959,475 @@
       <c r="P22" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="68"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="54"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="69">
+      <c r="A25" s="28">
         <v>1</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="I25" s="38"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="58" t="s">
+      <c r="H25" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="60"/>
-      <c r="M25" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="51"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="70"/>
-      <c r="B26" s="64" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="I26" s="38"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="58" t="s">
+      <c r="H26" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="I26" s="41"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="60"/>
-      <c r="M26" s="46" t="s">
+      <c r="L26" s="58"/>
+      <c r="M26" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="48"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="51"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="70"/>
-      <c r="B27" s="64" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
       <c r="G27" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="I27" s="38"/>
-      <c r="J27" s="37"/>
+      <c r="H27" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="I27" s="41"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="17"/>
       <c r="L27" s="18"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="48"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="51"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="70"/>
-      <c r="B28" s="64" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="58" t="s">
+      <c r="C28" s="56"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="60"/>
-      <c r="M28" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="48"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="51"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="70"/>
-      <c r="B29" s="49" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="51"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="61"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="70"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="60"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="58" t="s">
+      <c r="G30" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="60"/>
-      <c r="I30" s="58" t="s">
+      <c r="H30" s="58"/>
+      <c r="I30" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="60"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="62"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="70"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="70"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
+      <c r="C31" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="63"/>
+      <c r="E31" s="64"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="H31" s="54"/>
+      <c r="G31" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="H31" s="64"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="56"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="66"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="70"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="54"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="64"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="56"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="66"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="69">
+      <c r="A33" s="28">
         <v>2</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="I33" s="38"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="58" t="s">
+      <c r="H33" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="I33" s="41"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="60"/>
-      <c r="M33" s="46" t="s">
+      <c r="L33" s="58"/>
+      <c r="M33" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="51"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="56"/>
+      <c r="D34" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="48"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="70"/>
-      <c r="B34" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="36" t="s">
+      <c r="H34" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I34" s="38"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="58" t="s">
+      <c r="I34" s="41"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="L34" s="60"/>
-      <c r="M34" s="46" t="s">
+      <c r="L34" s="58"/>
+      <c r="M34" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="48"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="51"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="70"/>
-      <c r="B35" s="64" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
       <c r="G35" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="I35" s="38"/>
-      <c r="J35" s="37"/>
+      <c r="H35" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="I35" s="41"/>
+      <c r="J35" s="40"/>
       <c r="K35" s="17"/>
       <c r="L35" s="18"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="48"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="51"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="70"/>
-      <c r="B36" s="64" t="s">
+      <c r="A36" s="29"/>
+      <c r="B36" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="58" t="s">
+      <c r="C36" s="56"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="60"/>
-      <c r="M36" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="48"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="51"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="70"/>
-      <c r="B37" s="49" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="51"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="61"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="70"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="60"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="58"/>
       <c r="F38" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="58" t="s">
+      <c r="G38" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="60"/>
-      <c r="I38" s="58" t="s">
+      <c r="H38" s="58"/>
+      <c r="I38" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="60"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="63"/>
-      <c r="O38" s="63"/>
-      <c r="P38" s="62"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="70"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="70"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="54"/>
+      <c r="C39" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="H39" s="54"/>
+      <c r="G39" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="H39" s="64"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="56"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="66"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="70"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="54"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="64"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="54"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="64"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="56"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="M30:P30"/>
     <mergeCell ref="M35:P35"/>
     <mergeCell ref="C39:E39"/>
@@ -7353,50 +7444,30 @@
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A24:P24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="K38:L38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7429,136 +7500,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="37"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="40"/>
       <c r="N1" s="16"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
+      <c r="I2" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -7687,14 +7758,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>56</v>
@@ -7721,14 +7792,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>94</v>
@@ -7965,237 +8036,254 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="68"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="54"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="69">
+      <c r="A20" s="28">
         <v>1</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="58" t="s">
+      <c r="H20" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="I20" s="41"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="60"/>
-      <c r="M20" s="46" t="s">
+      <c r="L20" s="58"/>
+      <c r="M20" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="51"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="48"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
-      <c r="B21" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I21" s="38"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="58" t="s">
+      <c r="I21" s="41"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="60"/>
-      <c r="M21" s="46" t="s">
+      <c r="L21" s="58"/>
+      <c r="M21" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="48"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="51"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="70"/>
-      <c r="B22" s="64" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="37"/>
+      <c r="H22" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="I22" s="41"/>
+      <c r="J22" s="40"/>
       <c r="K22" s="17"/>
       <c r="L22" s="18"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="48"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="51"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="70"/>
-      <c r="B23" s="64" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="58" t="s">
+      <c r="C23" s="56"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="60"/>
-      <c r="M23" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="48"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="51"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
-      <c r="B24" s="49" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="51"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="61"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="70"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="58" t="s">
+      <c r="G25" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="58" t="s">
+      <c r="H25" s="58"/>
+      <c r="I25" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="60"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="62"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="70"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="70"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="8">
         <v>1</v>
       </c>
-      <c r="C26" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54"/>
+      <c r="C26" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="H26" s="54"/>
+      <c r="G26" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" s="64"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="56"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="66"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="70"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="54"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="54"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="64"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="56"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="A19:P19"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="A20:A27"/>
@@ -8212,31 +8300,14 @@
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="M22:P22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-rule/model/nop-rule.orm.xlsx
+++ b/nop-rule/model/nop-rule.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47975B0-5F22-442C-88D3-507B6A86A9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2CE3F1-45F4-413D-ADD8-B60D1CB0223E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="602" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -742,15 +742,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>决策表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>TREE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1084,6 +1076,14 @@
   <si>
     <t>Aggregate Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策矩阵</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1323,7 +1323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1480,27 +1480,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1528,7 +1507,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1540,7 +1525,19 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2111,7 +2108,7 @@
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="45" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
@@ -2120,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
@@ -2137,7 +2134,7 @@
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
       <c r="D3" s="45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
@@ -2310,7 +2307,7 @@
         <v>139</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -2354,7 +2351,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="7"/>
@@ -2475,35 +2472,35 @@
       <c r="P14" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="54"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="71"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>1</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
@@ -2513,12 +2510,12 @@
       <c r="H17" s="39"/>
       <c r="I17" s="41"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="57" t="s">
+      <c r="K17" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="58"/>
+      <c r="L17" s="63"/>
       <c r="M17" s="49" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N17" s="50"/>
       <c r="O17" s="50"/>
@@ -2526,12 +2523,12 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="56"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="39" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
@@ -2543,10 +2540,10 @@
       </c>
       <c r="I18" s="41"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="57" t="s">
+      <c r="K18" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="58"/>
+      <c r="L18" s="63"/>
       <c r="M18" s="49" t="s">
         <v>68</v>
       </c>
@@ -2556,10 +2553,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="56"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="39"/>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
@@ -2578,10 +2575,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="29"/>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="39"/>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
@@ -2589,12 +2586,12 @@
       <c r="H20" s="41"/>
       <c r="I20" s="41"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="57" t="s">
+      <c r="K20" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="58"/>
+      <c r="L20" s="63"/>
       <c r="M20" s="49" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N20" s="50"/>
       <c r="O20" s="50"/>
@@ -2602,109 +2599,116 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="61"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="54"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
       <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="58"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
       <c r="F22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="57" t="s">
+      <c r="G22" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="57" t="s">
+      <c r="H22" s="63"/>
+      <c r="I22" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="58"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="70"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="65"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
       <c r="B23" s="8">
         <v>1</v>
       </c>
-      <c r="C23" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
+      <c r="C23" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="H23" s="64"/>
+      <c r="G23" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" s="57"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="66"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="59"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="64"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="64"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="57"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="66"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
     <mergeCell ref="A16:P16"/>
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="B17:C17"/>
@@ -2721,26 +2725,19 @@
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="M19:P19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3085,7 +3082,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>95</v>
@@ -3251,10 +3248,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>28</v>
@@ -3321,7 +3318,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3345,7 +3342,7 @@
         <v>155</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3414,13 +3411,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>166</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
@@ -3431,13 +3428,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>167</v>
+        <v>252</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -3970,7 +3967,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="7"/>
@@ -4313,7 +4310,7 @@
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="45" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
@@ -4322,7 +4319,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
@@ -4509,10 +4506,10 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -4539,11 +4536,11 @@
         <v>105</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>61</v>
@@ -4571,11 +4568,11 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>65</v>
@@ -4585,9 +4582,9 @@
         <v>27</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="K11" s="72"/>
+        <v>243</v>
+      </c>
+      <c r="K11" s="20"/>
       <c r="L11" s="7"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -4601,23 +4598,23 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="K12" s="72"/>
+        <v>243</v>
+      </c>
+      <c r="K12" s="20"/>
       <c r="L12" s="7"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -4635,7 +4632,7 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>97</v>
@@ -4663,11 +4660,11 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>98</v>
@@ -4693,17 +4690,17 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="9" t="s">
@@ -4985,35 +4982,35 @@
       <c r="P24" s="40"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="54"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="71"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
         <v>1</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="56"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
@@ -5021,16 +5018,16 @@
         <v>57</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I27" s="41"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="57" t="s">
+      <c r="K27" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="58"/>
+      <c r="L27" s="63"/>
       <c r="M27" s="49" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N27" s="50"/>
       <c r="O27" s="50"/>
@@ -5038,12 +5035,12 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="56"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="39" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
@@ -5055,10 +5052,10 @@
       </c>
       <c r="I28" s="41"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="57" t="s">
+      <c r="K28" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="L28" s="58"/>
+      <c r="L28" s="63"/>
       <c r="M28" s="49" t="s">
         <v>68</v>
       </c>
@@ -5068,12 +5065,12 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="29"/>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="56"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
@@ -5081,7 +5078,7 @@
         <v>100</v>
       </c>
       <c r="H29" s="41" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I29" s="41"/>
       <c r="J29" s="40"/>
@@ -5094,10 +5091,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="29"/>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="56"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="39"/>
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
@@ -5105,12 +5102,12 @@
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="57" t="s">
+      <c r="K30" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="58"/>
+      <c r="L30" s="63"/>
       <c r="M30" s="49" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N30" s="50"/>
       <c r="O30" s="50"/>
@@ -5118,96 +5115,130 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="29"/>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="61"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="54"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
       <c r="B32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="58"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="57" t="s">
+      <c r="G32" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="58"/>
-      <c r="I32" s="57" t="s">
+      <c r="H32" s="63"/>
+      <c r="I32" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="58"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="70"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="65"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="29"/>
       <c r="B33" s="8">
         <v>1</v>
       </c>
-      <c r="C33" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="64"/>
+      <c r="C33" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="56"/>
+      <c r="E33" s="57"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="H33" s="64"/>
+      <c r="G33" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="H33" s="57"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="66"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="59"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="29"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="64"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="64"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="57"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="66"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A26:P26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="M29:P29"/>
     <mergeCell ref="B31:J31"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="M31:P31"/>
@@ -5224,40 +5255,6 @@
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="M33:P33"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A24:P24"/>
-    <mergeCell ref="A26:P26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5320,7 +5317,7 @@
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
@@ -5329,7 +5326,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
@@ -5516,10 +5513,10 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -5546,11 +5543,11 @@
         <v>105</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>61</v>
@@ -5578,11 +5575,11 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>65</v>
@@ -5592,7 +5589,7 @@
         <v>27</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -5608,14 +5605,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
@@ -5644,7 +5641,7 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>97</v>
@@ -5672,11 +5669,11 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>98</v>
@@ -5702,17 +5699,17 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="9" t="s">
@@ -5994,35 +5991,35 @@
       <c r="P24" s="40"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="54"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="71"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="28">
         <v>1</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="56"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
@@ -6030,16 +6027,16 @@
         <v>57</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I27" s="41"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="57" t="s">
+      <c r="K27" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="58"/>
+      <c r="L27" s="63"/>
       <c r="M27" s="49" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N27" s="50"/>
       <c r="O27" s="50"/>
@@ -6047,12 +6044,12 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="56"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="39" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
@@ -6064,10 +6061,10 @@
       </c>
       <c r="I28" s="41"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="57" t="s">
+      <c r="K28" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="L28" s="58"/>
+      <c r="L28" s="63"/>
       <c r="M28" s="49" t="s">
         <v>68</v>
       </c>
@@ -6077,12 +6074,12 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="29"/>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="56"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
@@ -6090,7 +6087,7 @@
         <v>100</v>
       </c>
       <c r="H29" s="41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I29" s="41"/>
       <c r="J29" s="40"/>
@@ -6103,10 +6100,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="29"/>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="56"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="39"/>
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
@@ -6114,12 +6111,12 @@
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="57" t="s">
+      <c r="K30" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="58"/>
+      <c r="L30" s="63"/>
       <c r="M30" s="49" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N30" s="50"/>
       <c r="O30" s="50"/>
@@ -6127,109 +6124,117 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="29"/>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="61"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="54"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
       <c r="B32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="58"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="57" t="s">
+      <c r="G32" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="58"/>
-      <c r="I32" s="57" t="s">
+      <c r="H32" s="63"/>
+      <c r="I32" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="58"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="70"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="65"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="29"/>
       <c r="B33" s="8">
         <v>1</v>
       </c>
-      <c r="C33" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="64"/>
+      <c r="C33" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="56"/>
+      <c r="E33" s="57"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="H33" s="64"/>
+      <c r="G33" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="H33" s="57"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="66"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="59"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="29"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="64"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="64"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="57"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="66"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
     <mergeCell ref="A24:P24"/>
     <mergeCell ref="A26:P26"/>
     <mergeCell ref="A27:A34"/>
@@ -6246,27 +6251,19 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="H29:J29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6329,7 +6326,7 @@
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
@@ -6338,7 +6335,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
@@ -6525,10 +6522,10 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -6555,14 +6552,14 @@
         <v>105</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -6587,14 +6584,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -6617,17 +6614,17 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>27</v>
@@ -6651,17 +6648,17 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="9" t="s">
@@ -6682,17 +6679,17 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
@@ -6714,24 +6711,24 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -6959,35 +6956,35 @@
       <c r="P22" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="54"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="71"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
         <v>1</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="56"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
@@ -6995,16 +6992,16 @@
         <v>57</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="57" t="s">
+      <c r="K25" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="58"/>
+      <c r="L25" s="63"/>
       <c r="M25" s="49" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N25" s="50"/>
       <c r="O25" s="50"/>
@@ -7012,12 +7009,12 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="56"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="39" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
@@ -7025,14 +7022,14 @@
         <v>3</v>
       </c>
       <c r="H26" s="39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I26" s="41"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="57" t="s">
+      <c r="K26" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="58"/>
+      <c r="L26" s="63"/>
       <c r="M26" s="49" t="s">
         <v>68</v>
       </c>
@@ -7042,12 +7039,12 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="56"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
@@ -7055,7 +7052,7 @@
         <v>100</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I27" s="41"/>
       <c r="J27" s="40"/>
@@ -7068,10 +7065,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="56"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="39"/>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
@@ -7079,12 +7076,12 @@
       <c r="H28" s="41"/>
       <c r="I28" s="41"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="57" t="s">
+      <c r="K28" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="58"/>
+      <c r="L28" s="63"/>
       <c r="M28" s="49" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
@@ -7092,104 +7089,104 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="29"/>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="61"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="54"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="29"/>
       <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="58"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="57" t="s">
+      <c r="G30" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="58"/>
-      <c r="I30" s="57" t="s">
+      <c r="H30" s="63"/>
+      <c r="I30" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="58"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="70"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="65"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="29"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="64"/>
+      <c r="C31" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="H31" s="64"/>
+      <c r="G31" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="H31" s="57"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="66"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="59"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="64"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="57"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="64"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="57"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="66"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="59"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
         <v>2</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="56"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
@@ -7197,16 +7194,16 @@
         <v>57</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I33" s="41"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="57" t="s">
+      <c r="K33" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="58"/>
+      <c r="L33" s="63"/>
       <c r="M33" s="49" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N33" s="50"/>
       <c r="O33" s="50"/>
@@ -7214,12 +7211,12 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="29"/>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="56"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="39" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
@@ -7231,10 +7228,10 @@
       </c>
       <c r="I34" s="41"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="57" t="s">
+      <c r="K34" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="L34" s="58"/>
+      <c r="L34" s="63"/>
       <c r="M34" s="49" t="s">
         <v>68</v>
       </c>
@@ -7244,12 +7241,12 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="29"/>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="56"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
@@ -7257,7 +7254,7 @@
         <v>100</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I35" s="41"/>
       <c r="J35" s="40"/>
@@ -7270,10 +7267,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="29"/>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="56"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="39"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
@@ -7281,12 +7278,12 @@
       <c r="H36" s="41"/>
       <c r="I36" s="41"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="57" t="s">
+      <c r="K36" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="58"/>
+      <c r="L36" s="63"/>
       <c r="M36" s="49" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N36" s="50"/>
       <c r="O36" s="50"/>
@@ -7294,108 +7291,152 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="29"/>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="61"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="54"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
       <c r="B38" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="58"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
       <c r="F38" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="57" t="s">
+      <c r="G38" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="58"/>
-      <c r="I38" s="57" t="s">
+      <c r="H38" s="63"/>
+      <c r="I38" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="58"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="70"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="65"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="64"/>
+      <c r="C39" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="56"/>
+      <c r="E39" s="57"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="H39" s="64"/>
+      <c r="G39" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="H39" s="57"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="67"/>
-      <c r="P39" s="66"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="59"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="64"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="57"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="64"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="57"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="66"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="M27:P27"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="G31:H31"/>
@@ -7412,62 +7453,18 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A24:P24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7506,7 +7503,7 @@
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
       <c r="D1" s="45" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
@@ -7530,7 +7527,7 @@
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="45" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
@@ -7539,7 +7536,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
@@ -7556,7 +7553,7 @@
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
       <c r="D3" s="45" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
@@ -7578,7 +7575,7 @@
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
@@ -7730,10 +7727,10 @@
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -7758,14 +7755,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>56</v>
@@ -7792,14 +7789,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>94</v>
@@ -8036,35 +8033,35 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="54"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="71"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <v>1</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
@@ -8072,16 +8069,16 @@
         <v>57</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I20" s="41"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="57" t="s">
+      <c r="K20" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="58"/>
+      <c r="L20" s="63"/>
       <c r="M20" s="49" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N20" s="50"/>
       <c r="O20" s="50"/>
@@ -8089,12 +8086,12 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="39" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
@@ -8106,10 +8103,10 @@
       </c>
       <c r="I21" s="41"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="57" t="s">
+      <c r="K21" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="58"/>
+      <c r="L21" s="63"/>
       <c r="M21" s="49" t="s">
         <v>68</v>
       </c>
@@ -8119,12 +8116,12 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="56"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
@@ -8132,7 +8129,7 @@
         <v>100</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I22" s="41"/>
       <c r="J22" s="40"/>
@@ -8145,10 +8142,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="39"/>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
@@ -8156,12 +8153,12 @@
       <c r="H23" s="41"/>
       <c r="I23" s="41"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="57" t="s">
+      <c r="K23" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="58"/>
+      <c r="L23" s="63"/>
       <c r="M23" s="49" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N23" s="50"/>
       <c r="O23" s="50"/>
@@ -8169,105 +8166,120 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="61"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="54"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="29"/>
       <c r="B25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="58"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="58"/>
-      <c r="I25" s="57" t="s">
+      <c r="H25" s="63"/>
+      <c r="I25" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="58"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="70"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="65"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
       <c r="B26" s="8">
         <v>1</v>
       </c>
-      <c r="C26" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="64"/>
+      <c r="C26" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="H26" s="64"/>
+      <c r="G26" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="H26" s="57"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="66"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="59"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="64"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="64"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="57"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="66"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
@@ -8284,30 +8296,15 @@
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-rule/model/nop-rule.orm.xlsx
+++ b/nop-rule/model/nop-rule.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2CE3F1-45F4-413D-ADD8-B60D1CB0223E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC529C2A-5067-46FD-A7EE-BD1339068565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="602" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="602" firstSheet="1" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -18,11 +18,9 @@
     <sheet name="域定义" sheetId="15" r:id="rId3"/>
     <sheet name="字典定义" sheetId="23" r:id="rId4"/>
     <sheet name="nop_rule_definition" sheetId="7" r:id="rId5"/>
-    <sheet name="nop_rule_input" sheetId="21" r:id="rId6"/>
-    <sheet name="nop_rule_output" sheetId="1" r:id="rId7"/>
-    <sheet name="nop_rule_node" sheetId="19" r:id="rId8"/>
-    <sheet name="nop_rule_role" sheetId="6" r:id="rId9"/>
-    <sheet name="nop_rule_log" sheetId="18" r:id="rId10"/>
+    <sheet name="nop_rule_node" sheetId="19" r:id="rId6"/>
+    <sheet name="nop_rule_role" sheetId="6" r:id="rId7"/>
+    <sheet name="nop_rule_log" sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="229">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -774,38 +772,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Display Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEMA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schema</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -822,43 +788,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inputs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pub,ref-pub,ref-cascade-delete,ref-insertable,ref-updatable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>规则输入变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input Variables</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ruleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule Input Variable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则输出变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule Output Variable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outputs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Output Variables</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1038,43 +972,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IS_MANDATORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is Mandatory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BOOLEAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IS_COMPUTED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is Computed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>json-4k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGG_METHOD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aggregate Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2053,698 +1955,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF0B1E8-EF9C-4B0E-BEEA-DE0FFCF2D11A}">
-  <dimension ref="A1:P24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="40"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="7">
-        <v>32</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="7">
-        <v>32</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="7">
-        <v>4000</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="7">
-        <v>50</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>6</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="71"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="28">
-        <v>1</v>
-      </c>
-      <c r="B17" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="63"/>
-      <c r="M17" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="51"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="L18" s="63"/>
-      <c r="M18" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="51"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="51"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="63"/>
-      <c r="M20" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="51"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="54"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="63"/>
-      <c r="I22" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="63"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="65"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="8">
-        <v>1</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="H23" s="57"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="59"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="59"/>
-    </row>
-  </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
@@ -3082,7 +2292,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>95</v>
@@ -3248,10 +2458,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>28</v>
@@ -3317,7 +2527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C81811-AE0A-410A-ADF7-9B7CA65ED4B7}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -3342,7 +2552,7 @@
         <v>155</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3428,13 +2638,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -3478,8 +2688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8E42C9-C05B-4E62-A510-6D91D5B4B214}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3768,11 +2978,9 @@
         <v>27</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="7">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -4255,2026 +3463,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
-  <dimension ref="A1:P34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.75" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="40"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="7">
-        <v>32</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="7">
-        <v>32</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="7">
-        <v>50</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>6</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="20">
-        <v>200</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="20">
-        <v>1000</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>8</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="7">
-        <v>4000</v>
-      </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>9</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="7">
-        <v>4000</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>11</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="7">
-        <v>50</v>
-      </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="7">
-        <v>50</v>
-      </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>14</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>15</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="7">
-        <v>200</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="40"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="71"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="28">
-        <v>1</v>
-      </c>
-      <c r="B27" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="63"/>
-      <c r="M27" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="51"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28" s="63"/>
-      <c r="M28" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="51"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="51"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="63"/>
-      <c r="M30" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="51"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="54"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="63"/>
-      <c r="I32" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="63"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="65"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="8">
-        <v>1</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="H33" s="57"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="59"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="59"/>
-    </row>
-  </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A24:P24"/>
-    <mergeCell ref="A26:P26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
-  <dimension ref="A1:P34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.75" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="40"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="7">
-        <v>32</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="7">
-        <v>32</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="7">
-        <v>50</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="7">
-        <v>10</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>6</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="7">
-        <v>200</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="7">
-        <v>1000</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>8</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="7">
-        <v>4000</v>
-      </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>9</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="7">
-        <v>4000</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>11</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="7">
-        <v>50</v>
-      </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="7">
-        <v>50</v>
-      </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>14</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>15</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="7">
-        <v>200</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="40"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="71"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="28">
-        <v>1</v>
-      </c>
-      <c r="B27" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="63"/>
-      <c r="M27" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="51"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28" s="63"/>
-      <c r="M28" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="51"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="51"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="63"/>
-      <c r="M30" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="51"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="54"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="63"/>
-      <c r="I32" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="63"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="65"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="8">
-        <v>1</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="H33" s="57"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="59"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="59"/>
-    </row>
-  </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="A24:P24"/>
-    <mergeCell ref="A26:P26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C32C7CF-B3F4-4DAF-B908-118F3127E9A6}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -6326,7 +3518,7 @@
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="45" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
@@ -6335,7 +3527,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
@@ -6552,14 +3744,14 @@
         <v>105</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -6584,14 +3776,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -6614,17 +3806,17 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>27</v>
@@ -6648,17 +3840,17 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="9" t="s">
@@ -6679,17 +3871,17 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
@@ -6711,24 +3903,24 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -6984,7 +4176,7 @@
       </c>
       <c r="C25" s="68"/>
       <c r="D25" s="39" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
@@ -6992,7 +4184,7 @@
         <v>57</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="40"/>
@@ -7001,7 +4193,7 @@
       </c>
       <c r="L25" s="63"/>
       <c r="M25" s="49" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="N25" s="50"/>
       <c r="O25" s="50"/>
@@ -7014,7 +4206,7 @@
       </c>
       <c r="C26" s="68"/>
       <c r="D26" s="39" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
@@ -7022,7 +4214,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="39" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="I26" s="41"/>
       <c r="J26" s="40"/>
@@ -7044,7 +4236,7 @@
       </c>
       <c r="C27" s="68"/>
       <c r="D27" s="39" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
@@ -7052,7 +4244,7 @@
         <v>100</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="I27" s="41"/>
       <c r="J27" s="40"/>
@@ -7081,7 +4273,7 @@
       </c>
       <c r="L28" s="63"/>
       <c r="M28" s="49" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
@@ -7141,13 +4333,13 @@
         <v>1</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D31" s="56"/>
       <c r="E31" s="57"/>
       <c r="F31" s="3"/>
       <c r="G31" s="55" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="H31" s="57"/>
       <c r="I31" s="3"/>
@@ -7186,7 +4378,7 @@
       </c>
       <c r="C33" s="68"/>
       <c r="D33" s="39" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
@@ -7194,7 +4386,7 @@
         <v>57</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="I33" s="41"/>
       <c r="J33" s="40"/>
@@ -7203,7 +4395,7 @@
       </c>
       <c r="L33" s="63"/>
       <c r="M33" s="49" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="N33" s="50"/>
       <c r="O33" s="50"/>
@@ -7216,7 +4408,7 @@
       </c>
       <c r="C34" s="68"/>
       <c r="D34" s="39" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
@@ -7246,7 +4438,7 @@
       </c>
       <c r="C35" s="68"/>
       <c r="D35" s="39" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
@@ -7254,7 +4446,7 @@
         <v>100</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="I35" s="41"/>
       <c r="J35" s="40"/>
@@ -7283,7 +4475,7 @@
       </c>
       <c r="L36" s="63"/>
       <c r="M36" s="49" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="N36" s="50"/>
       <c r="O36" s="50"/>
@@ -7343,13 +4535,13 @@
         <v>1</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D39" s="56"/>
       <c r="E39" s="57"/>
       <c r="F39" s="3"/>
       <c r="G39" s="55" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="H39" s="57"/>
       <c r="I39" s="3"/>
@@ -7471,7 +4663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2266CBF-16D7-4305-8E93-0AAD229883C5}">
   <dimension ref="A1:P27"/>
   <sheetViews>
@@ -7503,7 +4695,7 @@
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
       <c r="D1" s="45" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
@@ -7527,7 +4719,7 @@
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="45" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
@@ -7536,7 +4728,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
@@ -7553,7 +4745,7 @@
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
       <c r="D3" s="45" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
@@ -7575,7 +4767,7 @@
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="45" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
@@ -7755,14 +4947,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>56</v>
@@ -7789,14 +4981,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>94</v>
@@ -8061,7 +5253,7 @@
       </c>
       <c r="C20" s="68"/>
       <c r="D20" s="39" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
@@ -8069,7 +5261,7 @@
         <v>57</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="I20" s="41"/>
       <c r="J20" s="40"/>
@@ -8078,7 +5270,7 @@
       </c>
       <c r="L20" s="63"/>
       <c r="M20" s="49" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="N20" s="50"/>
       <c r="O20" s="50"/>
@@ -8091,7 +5283,7 @@
       </c>
       <c r="C21" s="68"/>
       <c r="D21" s="39" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
@@ -8121,7 +5313,7 @@
       </c>
       <c r="C22" s="68"/>
       <c r="D22" s="39" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
@@ -8129,7 +5321,7 @@
         <v>100</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="I22" s="41"/>
       <c r="J22" s="40"/>
@@ -8158,7 +5350,7 @@
       </c>
       <c r="L23" s="63"/>
       <c r="M23" s="49" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="N23" s="50"/>
       <c r="O23" s="50"/>
@@ -8218,13 +5410,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D26" s="56"/>
       <c r="E26" s="57"/>
       <c r="F26" s="3"/>
       <c r="G26" s="55" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="H26" s="57"/>
       <c r="I26" s="3"/>
@@ -8309,4 +5501,696 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF0B1E8-EF9C-4B0E-BEEA-DE0FFCF2D11A}">
+  <dimension ref="A1:P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="39"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="40"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="7">
+        <v>32</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="7">
+        <v>4000</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="7">
+        <v>50</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="71"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="28">
+        <v>1</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="68"/>
+      <c r="D17" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="63"/>
+      <c r="M17" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="51"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="68"/>
+      <c r="D18" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" s="41"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="63"/>
+      <c r="M18" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="51"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="68"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="51"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="68"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="63"/>
+      <c r="M20" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="51"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="54"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="63"/>
+      <c r="I22" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="63"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="65"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="H23" s="57"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="59"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/nop-rule/model/nop-rule.orm.xlsx
+++ b/nop-rule/model/nop-rule.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC529C2A-5067-46FD-A7EE-BD1339068565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63F25CC-9D4C-4E70-82F4-C9909BF453C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="602" firstSheet="1" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="602" firstSheet="1" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="231">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -986,6 +986,14 @@
   <si>
     <t>决策矩阵</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruleRoles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule Roles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1382,6 +1390,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1391,46 +1438,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2688,7 +2696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8E42C9-C05B-4E62-A510-6D91D5B4B214}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -4171,10 +4179,10 @@
       <c r="A25" s="28">
         <v>1</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="39" t="s">
         <v>190</v>
       </c>
@@ -4188,10 +4196,10 @@
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="61" t="s">
+      <c r="K25" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="63"/>
+      <c r="L25" s="64"/>
       <c r="M25" s="49" t="s">
         <v>194</v>
       </c>
@@ -4201,10 +4209,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="68"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="39" t="s">
         <v>195</v>
       </c>
@@ -4218,10 +4226,10 @@
       </c>
       <c r="I26" s="41"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="61" t="s">
+      <c r="K26" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="63"/>
+      <c r="L26" s="64"/>
       <c r="M26" s="49" t="s">
         <v>68</v>
       </c>
@@ -4231,10 +4239,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="68"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="39" t="s">
         <v>197</v>
       </c>
@@ -4257,10 +4265,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="39"/>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
@@ -4268,10 +4276,10 @@
       <c r="H28" s="41"/>
       <c r="I28" s="41"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="61" t="s">
+      <c r="K28" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="63"/>
+      <c r="L28" s="64"/>
       <c r="M28" s="49" t="s">
         <v>179</v>
       </c>
@@ -4281,51 +4289,51 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="29"/>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="54"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="67"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="29"/>
       <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="64"/>
       <c r="F30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="61" t="s">
+      <c r="G30" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="63"/>
-      <c r="I30" s="61" t="s">
+      <c r="H30" s="64"/>
+      <c r="I30" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="63"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="65"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="54"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="29"/>
@@ -4373,10 +4381,10 @@
       <c r="A33" s="28">
         <v>2</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="68"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="39" t="s">
         <v>177</v>
       </c>
@@ -4390,10 +4398,10 @@
       </c>
       <c r="I33" s="41"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="61" t="s">
+      <c r="K33" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="63"/>
+      <c r="L33" s="64"/>
       <c r="M33" s="49" t="s">
         <v>176</v>
       </c>
@@ -4403,10 +4411,10 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="29"/>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="68"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="39" t="s">
         <v>178</v>
       </c>
@@ -4420,10 +4428,10 @@
       </c>
       <c r="I34" s="41"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="61" t="s">
+      <c r="K34" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="L34" s="63"/>
+      <c r="L34" s="64"/>
       <c r="M34" s="49" t="s">
         <v>68</v>
       </c>
@@ -4433,10 +4441,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="29"/>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="68"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="39" t="s">
         <v>181</v>
       </c>
@@ -4459,10 +4467,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="29"/>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="68"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="39"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
@@ -4470,10 +4478,10 @@
       <c r="H36" s="41"/>
       <c r="I36" s="41"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="61" t="s">
+      <c r="K36" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="63"/>
+      <c r="L36" s="64"/>
       <c r="M36" s="49" t="s">
         <v>179</v>
       </c>
@@ -4483,51 +4491,51 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="29"/>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="54"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="67"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
       <c r="B38" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="62"/>
-      <c r="E38" s="63"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="64"/>
       <c r="F38" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="61" t="s">
+      <c r="G38" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="63"/>
-      <c r="I38" s="61" t="s">
+      <c r="H38" s="64"/>
+      <c r="I38" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="63"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="65"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="54"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
@@ -4573,30 +4581,50 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="M30:P30"/>
     <mergeCell ref="M35:P35"/>
     <mergeCell ref="C39:E39"/>
@@ -4613,50 +4641,30 @@
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A24:P24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="K38:L38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4667,8 +4675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2266CBF-16D7-4305-8E93-0AAD229883C5}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21:P21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5248,10 +5256,10 @@
       <c r="A20" s="28">
         <v>1</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="39" t="s">
         <v>177</v>
       </c>
@@ -5261,14 +5269,14 @@
         <v>57</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="I20" s="41"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="61" t="s">
+      <c r="K20" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="63"/>
+      <c r="L20" s="64"/>
       <c r="M20" s="49" t="s">
         <v>176</v>
       </c>
@@ -5278,10 +5286,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="68"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="39" t="s">
         <v>178</v>
       </c>
@@ -5295,10 +5303,10 @@
       </c>
       <c r="I21" s="41"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="61" t="s">
+      <c r="K21" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="63"/>
+      <c r="L21" s="64"/>
       <c r="M21" s="49" t="s">
         <v>68</v>
       </c>
@@ -5308,12 +5316,12 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="39" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
@@ -5321,7 +5329,7 @@
         <v>100</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="I22" s="41"/>
       <c r="J22" s="40"/>
@@ -5334,10 +5342,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="39"/>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
@@ -5345,10 +5353,10 @@
       <c r="H23" s="41"/>
       <c r="I23" s="41"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="61" t="s">
+      <c r="K23" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="63"/>
+      <c r="L23" s="64"/>
       <c r="M23" s="49" t="s">
         <v>179</v>
       </c>
@@ -5358,51 +5366,51 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="54"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="67"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="29"/>
       <c r="B25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="64"/>
       <c r="F25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="61" t="s">
+      <c r="G25" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="63"/>
-      <c r="I25" s="61" t="s">
+      <c r="H25" s="64"/>
+      <c r="I25" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="63"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="65"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="54"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
@@ -5448,14 +5456,31 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="A19:P19"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="A20:A27"/>
@@ -5472,31 +5497,14 @@
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="M22:P22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5945,10 +5953,10 @@
       <c r="A17" s="28">
         <v>1</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="68"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="39" t="s">
         <v>177</v>
       </c>
@@ -5960,10 +5968,10 @@
       <c r="H17" s="39"/>
       <c r="I17" s="41"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="61" t="s">
+      <c r="K17" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="63"/>
+      <c r="L17" s="64"/>
       <c r="M17" s="49" t="s">
         <v>176</v>
       </c>
@@ -5973,10 +5981,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="39" t="s">
         <v>178</v>
       </c>
@@ -5990,10 +5998,10 @@
       </c>
       <c r="I18" s="41"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="61" t="s">
+      <c r="K18" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="63"/>
+      <c r="L18" s="64"/>
       <c r="M18" s="49" t="s">
         <v>68</v>
       </c>
@@ -6003,10 +6011,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="68"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="39"/>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
@@ -6025,10 +6033,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="29"/>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="39"/>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
@@ -6036,10 +6044,10 @@
       <c r="H20" s="41"/>
       <c r="I20" s="41"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="61" t="s">
+      <c r="K20" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="63"/>
+      <c r="L20" s="64"/>
       <c r="M20" s="49" t="s">
         <v>213</v>
       </c>
@@ -6049,51 +6057,51 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="54"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="67"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
       <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="63"/>
-      <c r="I22" s="61" t="s">
+      <c r="H22" s="64"/>
+      <c r="I22" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="63"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="65"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="54"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
@@ -6139,26 +6147,19 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
     <mergeCell ref="A16:P16"/>
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="B17:C17"/>
@@ -6175,19 +6176,26 @@
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-rule/model/nop-rule.orm.xlsx
+++ b/nop-rule/model/nop-rule.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63F25CC-9D4C-4E70-82F4-C9909BF453C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E089E5CD-E3AC-40AF-B0F6-61BD30274BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="602" firstSheet="1" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="231">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -920,10 +920,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>many-to-many</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -993,6 +989,10 @@
   </si>
   <si>
     <t>Rule Roles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub,ref-pub,ref-grid,ref-cascade-delete,ref-insertable,ref-updatable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2300,7 +2300,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>95</v>
@@ -2466,7 +2466,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>175</v>
@@ -2560,7 +2560,7 @@
         <v>155</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2646,13 +2646,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>228</v>
-      </c>
       <c r="E7" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -3784,14 +3784,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>222</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -3824,7 +3824,7 @@
         <v>187</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>27</v>
@@ -3848,17 +3848,17 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>188</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="9" t="s">
@@ -3911,24 +3911,24 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>219</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -4675,8 +4675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2266CBF-16D7-4305-8E93-0AAD229883C5}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4752,9 +4752,7 @@
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
-      <c r="D3" s="45" t="s">
-        <v>212</v>
-      </c>
+      <c r="D3" s="45"/>
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
       <c r="G3" s="47"/>
@@ -5269,7 +5267,7 @@
         <v>57</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I20" s="41"/>
       <c r="J20" s="40"/>
@@ -5329,7 +5327,7 @@
         <v>100</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I22" s="41"/>
       <c r="J22" s="40"/>
@@ -5358,7 +5356,7 @@
       </c>
       <c r="L23" s="64"/>
       <c r="M23" s="49" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="N23" s="50"/>
       <c r="O23" s="50"/>
@@ -6049,7 +6047,7 @@
       </c>
       <c r="L20" s="64"/>
       <c r="M20" s="49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N20" s="50"/>
       <c r="O20" s="50"/>

--- a/nop-rule/model/nop-rule.orm.xlsx
+++ b/nop-rule/model/nop-rule.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E089E5CD-E3AC-40AF-B0F6-61BD30274BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB586F92-D385-48E1-AA4E-D82A3AD1B097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="602" firstSheet="1" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="602" firstSheet="1" activeTab="2" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="232">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -993,6 +993,10 @@
   </si>
   <si>
     <t>pub,ref-pub,ref-grid,ref-cascade-delete,ref-insertable,ref-updatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml-16m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1233,7 +1237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1390,65 +1394,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2128,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6B1C0B-16AE-459C-999C-D9C9CBAA7576}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2481,11 +2488,21 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>153</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
@@ -2697,7 +2714,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3142,7 +3159,7 @@
         <v>112</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="9" t="s">
@@ -4156,33 +4173,33 @@
       <c r="P22" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="71"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="70"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="28">
         <v>1</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="62"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="39" t="s">
         <v>190</v>
       </c>
@@ -4196,10 +4213,10 @@
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="63" t="s">
+      <c r="K25" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="64"/>
+      <c r="L25" s="61"/>
       <c r="M25" s="49" t="s">
         <v>194</v>
       </c>
@@ -4209,10 +4226,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="62"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="39" t="s">
         <v>195</v>
       </c>
@@ -4226,10 +4243,10 @@
       </c>
       <c r="I26" s="41"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="63" t="s">
+      <c r="K26" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="64"/>
+      <c r="L26" s="61"/>
       <c r="M26" s="49" t="s">
         <v>68</v>
       </c>
@@ -4239,10 +4256,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="39" t="s">
         <v>197</v>
       </c>
@@ -4265,10 +4282,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="62"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="39"/>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
@@ -4276,10 +4293,10 @@
       <c r="H28" s="41"/>
       <c r="I28" s="41"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="63" t="s">
+      <c r="K28" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="64"/>
+      <c r="L28" s="61"/>
       <c r="M28" s="49" t="s">
         <v>179</v>
       </c>
@@ -4289,102 +4306,102 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="29"/>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="67"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="64"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="29"/>
       <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="61"/>
       <c r="F30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="63" t="s">
+      <c r="G30" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="64"/>
-      <c r="I30" s="63" t="s">
+      <c r="H30" s="61"/>
+      <c r="I30" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="64"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="54"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="67"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="29"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="H31" s="57"/>
+      <c r="H31" s="54"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="59"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="56"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="57"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="57"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="54"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="59"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="56"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
         <v>2</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="62"/>
+      <c r="C33" s="59"/>
       <c r="D33" s="39" t="s">
         <v>177</v>
       </c>
@@ -4398,10 +4415,10 @@
       </c>
       <c r="I33" s="41"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="63" t="s">
+      <c r="K33" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="64"/>
+      <c r="L33" s="61"/>
       <c r="M33" s="49" t="s">
         <v>176</v>
       </c>
@@ -4411,10 +4428,10 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="29"/>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="62"/>
+      <c r="C34" s="59"/>
       <c r="D34" s="39" t="s">
         <v>178</v>
       </c>
@@ -4428,10 +4445,10 @@
       </c>
       <c r="I34" s="41"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="63" t="s">
+      <c r="K34" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="L34" s="64"/>
+      <c r="L34" s="61"/>
       <c r="M34" s="49" t="s">
         <v>68</v>
       </c>
@@ -4441,10 +4458,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="29"/>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="62"/>
+      <c r="C35" s="59"/>
       <c r="D35" s="39" t="s">
         <v>181</v>
       </c>
@@ -4467,10 +4484,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="29"/>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="62"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="39"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
@@ -4478,10 +4495,10 @@
       <c r="H36" s="41"/>
       <c r="I36" s="41"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="63" t="s">
+      <c r="K36" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="64"/>
+      <c r="L36" s="61"/>
       <c r="M36" s="49" t="s">
         <v>179</v>
       </c>
@@ -4491,108 +4508,152 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="29"/>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="67"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="64"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
       <c r="B38" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="61"/>
       <c r="F38" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="63" t="s">
+      <c r="G38" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="64"/>
-      <c r="I38" s="63" t="s">
+      <c r="H38" s="61"/>
+      <c r="I38" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="64"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="54"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="67"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="57"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="54"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="55" t="s">
+      <c r="G39" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="H39" s="57"/>
+      <c r="H39" s="54"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="59"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="56"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="57"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="54"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="57"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="54"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="59"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="M27:P27"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="G31:H31"/>
@@ -4609,62 +4670,18 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A24:P24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4675,7 +4692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2266CBF-16D7-4305-8E93-0AAD229883C5}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
@@ -5231,33 +5248,33 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="71"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="70"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="28">
         <v>1</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="62"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="39" t="s">
         <v>177</v>
       </c>
@@ -5271,10 +5288,10 @@
       </c>
       <c r="I20" s="41"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="63" t="s">
+      <c r="K20" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="64"/>
+      <c r="L20" s="61"/>
       <c r="M20" s="49" t="s">
         <v>176</v>
       </c>
@@ -5284,10 +5301,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="62"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="39" t="s">
         <v>178</v>
       </c>
@@ -5301,10 +5318,10 @@
       </c>
       <c r="I21" s="41"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="63" t="s">
+      <c r="K21" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="64"/>
+      <c r="L21" s="61"/>
       <c r="M21" s="49" t="s">
         <v>68</v>
       </c>
@@ -5314,10 +5331,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="62"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="39" t="s">
         <v>204</v>
       </c>
@@ -5340,10 +5357,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="62"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="39"/>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
@@ -5351,10 +5368,10 @@
       <c r="H23" s="41"/>
       <c r="I23" s="41"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="63" t="s">
+      <c r="K23" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="64"/>
+      <c r="L23" s="61"/>
       <c r="M23" s="49" t="s">
         <v>230</v>
       </c>
@@ -5364,105 +5381,120 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="67"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="64"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="29"/>
       <c r="B25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="63" t="s">
+      <c r="G25" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="64"/>
-      <c r="I25" s="63" t="s">
+      <c r="H25" s="61"/>
+      <c r="I25" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="64"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="54"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="67"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
       <c r="B26" s="8">
         <v>1</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="H26" s="57"/>
+      <c r="H26" s="54"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="59"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="56"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="57"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="54"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="59"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
@@ -5479,30 +5511,15 @@
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5928,33 +5945,33 @@
       <c r="P14" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="71"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="70"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>1</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="62"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="39" t="s">
         <v>177</v>
       </c>
@@ -5966,10 +5983,10 @@
       <c r="H17" s="39"/>
       <c r="I17" s="41"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="63" t="s">
+      <c r="K17" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="64"/>
+      <c r="L17" s="61"/>
       <c r="M17" s="49" t="s">
         <v>176</v>
       </c>
@@ -5979,10 +5996,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="62"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="39" t="s">
         <v>178</v>
       </c>
@@ -5996,10 +6013,10 @@
       </c>
       <c r="I18" s="41"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="63" t="s">
+      <c r="K18" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="64"/>
+      <c r="L18" s="61"/>
       <c r="M18" s="49" t="s">
         <v>68</v>
       </c>
@@ -6009,10 +6026,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="62"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="39"/>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
@@ -6031,10 +6048,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="29"/>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="62"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="39"/>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
@@ -6042,10 +6059,10 @@
       <c r="H20" s="41"/>
       <c r="I20" s="41"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="63" t="s">
+      <c r="K20" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="64"/>
+      <c r="L20" s="61"/>
       <c r="M20" s="49" t="s">
         <v>212</v>
       </c>
@@ -6055,109 +6072,116 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="67"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="64"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
       <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="61"/>
       <c r="F22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="63" t="s">
+      <c r="G22" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="64"/>
-      <c r="I22" s="63" t="s">
+      <c r="H22" s="61"/>
+      <c r="I22" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="64"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="54"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="67"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
       <c r="B23" s="8">
         <v>1</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="H23" s="57"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="59"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="56"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="57"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="54"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="59"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
     <mergeCell ref="A16:P16"/>
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="B17:C17"/>
@@ -6174,26 +6198,19 @@
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="M19:P19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-rule/model/nop-rule.orm.xlsx
+++ b/nop-rule/model/nop-rule.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB586F92-D385-48E1-AA4E-D82A3AD1B097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA5F8AF-9915-4267-BE4D-E84C02BACE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="602" firstSheet="1" activeTab="2" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="602" firstSheet="1" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="232">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1322,6 +1322,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1394,6 +1397,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1436,12 +1448,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1450,12 +1456,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2135,7 +2135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6B1C0B-16AE-459C-999C-D9C9CBAA7576}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -2500,7 +2500,7 @@
       <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="28" t="s">
         <v>153</v>
       </c>
       <c r="F21" s="1"/>
@@ -2562,17 +2562,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="28">
+      <c r="A1" s="29">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="22" t="s">
         <v>155</v>
       </c>
@@ -2581,15 +2581,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="22" t="s">
         <v>157</v>
       </c>
@@ -2598,29 +2598,29 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="40"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="24" t="s">
         <v>160</v>
       </c>
@@ -2641,7 +2641,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="23">
         <v>1</v>
       </c>
@@ -2658,7 +2658,7 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="23">
         <v>2</v>
       </c>
@@ -2675,7 +2675,7 @@
       <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="23"/>
       <c r="C8" s="27"/>
       <c r="D8" s="26"/>
@@ -2684,13 +2684,13 @@
       <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2713,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8E42C9-C05B-4E62-A510-6D91D5B4B214}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2735,132 +2735,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="48"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="40"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="41"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -3151,7 +3151,9 @@
       <c r="D15" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="F15" s="9" t="s">
         <v>111</v>
       </c>
@@ -3425,22 +3427,22 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="40"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="41"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
@@ -3449,20 +3451,20 @@
       <c r="C26" s="12"/>
     </row>
     <row r="27" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3513,132 +3515,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="48"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="40"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="41"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4173,455 +4175,475 @@
       <c r="P22" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="72"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="28">
+      <c r="A25" s="29">
         <v>1</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="39" t="s">
+      <c r="C25" s="63"/>
+      <c r="D25" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="H25" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="60" t="s">
+      <c r="I25" s="42"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="61"/>
-      <c r="M25" s="49" t="s">
+      <c r="L25" s="65"/>
+      <c r="M25" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="52"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="58" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="39" t="s">
+      <c r="C26" s="63"/>
+      <c r="D26" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="H26" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="60" t="s">
+      <c r="I26" s="42"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="61"/>
-      <c r="M26" s="49" t="s">
+      <c r="L26" s="65"/>
+      <c r="M26" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="52"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="58" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="39" t="s">
+      <c r="C27" s="63"/>
+      <c r="D27" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
       <c r="G27" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="40"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="41"/>
       <c r="K27" s="17"/>
       <c r="L27" s="18"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="51"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="52"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="58" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="60" t="s">
+      <c r="C28" s="63"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="61"/>
-      <c r="M28" s="49" t="s">
+      <c r="L28" s="65"/>
+      <c r="M28" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="52"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="62" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="64"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="68"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="61"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="65"/>
       <c r="F30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="60" t="s">
+      <c r="G30" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="61"/>
-      <c r="I30" s="60" t="s">
+      <c r="H30" s="65"/>
+      <c r="I30" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="61"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="67"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="55"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="H31" s="54"/>
+      <c r="H31" s="58"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="56"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="60"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="58"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="54"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="58"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="56"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="60"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="28">
+      <c r="A33" s="29">
         <v>2</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="39" t="s">
+      <c r="C33" s="63"/>
+      <c r="D33" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="39" t="s">
+      <c r="H33" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="I33" s="41"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="60" t="s">
+      <c r="I33" s="42"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="61"/>
-      <c r="M33" s="49" t="s">
+      <c r="L33" s="65"/>
+      <c r="M33" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="52"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="58" t="s">
+      <c r="A34" s="30"/>
+      <c r="B34" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="39" t="s">
+      <c r="C34" s="63"/>
+      <c r="D34" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="39" t="s">
+      <c r="H34" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="I34" s="41"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="60" t="s">
+      <c r="I34" s="42"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="L34" s="61"/>
-      <c r="M34" s="49" t="s">
+      <c r="L34" s="65"/>
+      <c r="M34" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="52"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="58" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="39" t="s">
+      <c r="C35" s="63"/>
+      <c r="D35" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="41" t="s">
+      <c r="H35" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I35" s="41"/>
-      <c r="J35" s="40"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="41"/>
       <c r="K35" s="17"/>
       <c r="L35" s="18"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="51"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="52"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="58" t="s">
+      <c r="A36" s="30"/>
+      <c r="B36" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="60" t="s">
+      <c r="C36" s="63"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="61"/>
-      <c r="M36" s="49" t="s">
+      <c r="L36" s="65"/>
+      <c r="M36" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="52"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
-      <c r="B37" s="62" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="64"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="68"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="61"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="65"/>
       <c r="F38" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="60" t="s">
+      <c r="G38" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="61"/>
-      <c r="I38" s="60" t="s">
+      <c r="H38" s="65"/>
+      <c r="I38" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="61"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="67"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="55"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="54"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="58"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="H39" s="54"/>
+      <c r="H39" s="58"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="56"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="60"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="54"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="58"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="54"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="58"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="56"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="M30:P30"/>
     <mergeCell ref="M35:P35"/>
     <mergeCell ref="C39:E39"/>
@@ -4638,50 +4660,30 @@
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A24:P24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="K38:L38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4714,134 +4716,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="41"/>
       <c r="N1" s="16"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="48"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="40"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="41"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -5248,237 +5250,254 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="72"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="28">
+      <c r="A20" s="29">
         <v>1</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="39" t="s">
+      <c r="C20" s="63"/>
+      <c r="D20" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="H20" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="60" t="s">
+      <c r="I20" s="42"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="61"/>
-      <c r="M20" s="49" t="s">
+      <c r="L20" s="65"/>
+      <c r="M20" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="52"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="58" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="39" t="s">
+      <c r="C21" s="63"/>
+      <c r="D21" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="60" t="s">
+      <c r="I21" s="42"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="61"/>
-      <c r="M21" s="49" t="s">
+      <c r="L21" s="65"/>
+      <c r="M21" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="52"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="58" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="39" t="s">
+      <c r="C22" s="63"/>
+      <c r="D22" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="41" t="s">
+      <c r="H22" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="40"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="17"/>
       <c r="L22" s="18"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="51"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="52"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="58" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="60" t="s">
+      <c r="C23" s="63"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="61"/>
-      <c r="M23" s="49" t="s">
+      <c r="L23" s="65"/>
+      <c r="M23" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="52"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="62" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="64"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="68"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="61"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="60" t="s">
+      <c r="H25" s="65"/>
+      <c r="I25" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="61"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="67"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="55"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="8">
         <v>1</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="H26" s="54"/>
+      <c r="H26" s="58"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="56"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="60"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="54"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="54"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="58"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="56"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="A19:P19"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="A20:A27"/>
@@ -5495,31 +5514,14 @@
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="M22:P22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5551,134 +5553,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="41"/>
       <c r="N1" s="16"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="41"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="40"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="41"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -5945,243 +5947,236 @@
       <c r="P14" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="72"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="28">
+      <c r="A17" s="29">
         <v>1</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="39" t="s">
+      <c r="C17" s="63"/>
+      <c r="D17" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="60" t="s">
+      <c r="H17" s="40"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="61"/>
-      <c r="M17" s="49" t="s">
+      <c r="L17" s="65"/>
+      <c r="M17" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="52"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="58" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="39" t="s">
+      <c r="C18" s="63"/>
+      <c r="D18" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="60" t="s">
+      <c r="I18" s="42"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="61"/>
-      <c r="M18" s="49" t="s">
+      <c r="L18" s="65"/>
+      <c r="M18" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="52"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="58" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="40"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="41"/>
       <c r="K19" s="17"/>
       <c r="L19" s="18"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="51"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="52"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="58" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="60" t="s">
+      <c r="C20" s="63"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="61"/>
-      <c r="M20" s="49" t="s">
+      <c r="L20" s="65"/>
+      <c r="M20" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="52"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="62" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="64"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="68"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="61"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="65"/>
       <c r="F22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="60" t="s">
+      <c r="G22" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="61"/>
-      <c r="I22" s="60" t="s">
+      <c r="H22" s="65"/>
+      <c r="I22" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="61"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="67"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="55"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="8">
         <v>1</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="H23" s="54"/>
+      <c r="H23" s="58"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="56"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="60"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="54"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="58"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="56"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
     <mergeCell ref="A16:P16"/>
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="B17:C17"/>
@@ -6198,19 +6193,26 @@
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-rule/model/nop-rule.orm.xlsx
+++ b/nop-rule/model/nop-rule.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA5F8AF-9915-4267-BE4D-E84C02BACE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92E0E99-B926-4779-BE90-B978BEF81498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="602" firstSheet="1" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="602" firstSheet="1" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="232">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1397,57 +1397,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1455,6 +1452,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2713,7 +2713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8E42C9-C05B-4E62-A510-6D91D5B4B214}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3493,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C32C7CF-B3F4-4DAF-B908-118F3127E9A6}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3781,9 +3781,7 @@
         <v>185</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="9" t="s">
         <v>28</v>
       </c>
@@ -4175,33 +4173,33 @@
       <c r="P22" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="72"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="71"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="29">
         <v>1</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="63"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="40" t="s">
         <v>190</v>
       </c>
@@ -4215,10 +4213,10 @@
       </c>
       <c r="I25" s="42"/>
       <c r="J25" s="41"/>
-      <c r="K25" s="64" t="s">
+      <c r="K25" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="65"/>
+      <c r="L25" s="62"/>
       <c r="M25" s="50" t="s">
         <v>194</v>
       </c>
@@ -4228,10 +4226,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="63"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="40" t="s">
         <v>195</v>
       </c>
@@ -4245,10 +4243,10 @@
       </c>
       <c r="I26" s="42"/>
       <c r="J26" s="41"/>
-      <c r="K26" s="64" t="s">
+      <c r="K26" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="65"/>
+      <c r="L26" s="62"/>
       <c r="M26" s="50" t="s">
         <v>68</v>
       </c>
@@ -4258,10 +4256,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="63"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="40" t="s">
         <v>197</v>
       </c>
@@ -4284,10 +4282,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="40"/>
       <c r="E28" s="42"/>
       <c r="F28" s="42"/>
@@ -4295,10 +4293,10 @@
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
       <c r="J28" s="41"/>
-      <c r="K28" s="64" t="s">
+      <c r="K28" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="65"/>
+      <c r="L28" s="62"/>
       <c r="M28" s="50" t="s">
         <v>179</v>
       </c>
@@ -4308,102 +4306,102 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="68"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="65"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="62"/>
       <c r="F30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="65"/>
-      <c r="I30" s="64" t="s">
+      <c r="H30" s="62"/>
+      <c r="I30" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="65"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="55"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="68"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="H31" s="58"/>
+      <c r="H31" s="55"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="60"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="57"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="58"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="55"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="60"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="57"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="29">
         <v>2</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="63"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="40" t="s">
         <v>177</v>
       </c>
@@ -4417,10 +4415,10 @@
       </c>
       <c r="I33" s="42"/>
       <c r="J33" s="41"/>
-      <c r="K33" s="64" t="s">
+      <c r="K33" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="65"/>
+      <c r="L33" s="62"/>
       <c r="M33" s="50" t="s">
         <v>176</v>
       </c>
@@ -4430,10 +4428,10 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="63"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="40" t="s">
         <v>178</v>
       </c>
@@ -4447,10 +4445,10 @@
       </c>
       <c r="I34" s="42"/>
       <c r="J34" s="41"/>
-      <c r="K34" s="64" t="s">
+      <c r="K34" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="L34" s="65"/>
+      <c r="L34" s="62"/>
       <c r="M34" s="50" t="s">
         <v>68</v>
       </c>
@@ -4460,10 +4458,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="63"/>
+      <c r="C35" s="60"/>
       <c r="D35" s="40" t="s">
         <v>181</v>
       </c>
@@ -4486,10 +4484,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="63"/>
+      <c r="C36" s="60"/>
       <c r="D36" s="40"/>
       <c r="E36" s="42"/>
       <c r="F36" s="42"/>
@@ -4497,10 +4495,10 @@
       <c r="H36" s="42"/>
       <c r="I36" s="42"/>
       <c r="J36" s="41"/>
-      <c r="K36" s="64" t="s">
+      <c r="K36" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="65"/>
+      <c r="L36" s="62"/>
       <c r="M36" s="50" t="s">
         <v>179</v>
       </c>
@@ -4510,108 +4508,152 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="68"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="65"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="30"/>
       <c r="B38" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="65"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="62"/>
       <c r="F38" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="64" t="s">
+      <c r="G38" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="65"/>
-      <c r="I38" s="64" t="s">
+      <c r="H38" s="62"/>
+      <c r="I38" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="65"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="55"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="68"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="58"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="55"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="56" t="s">
+      <c r="G39" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="H39" s="58"/>
+      <c r="H39" s="55"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="60"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="57"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="30"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="58"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="55"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="58"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="55"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="60"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="M27:P27"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="G31:H31"/>
@@ -4628,62 +4670,18 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A24:P24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5250,33 +5248,33 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="72"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="71"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="29">
         <v>1</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="40" t="s">
         <v>177</v>
       </c>
@@ -5290,10 +5288,10 @@
       </c>
       <c r="I20" s="42"/>
       <c r="J20" s="41"/>
-      <c r="K20" s="64" t="s">
+      <c r="K20" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="65"/>
+      <c r="L20" s="62"/>
       <c r="M20" s="50" t="s">
         <v>176</v>
       </c>
@@ -5303,10 +5301,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="63"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="40" t="s">
         <v>178</v>
       </c>
@@ -5320,10 +5318,10 @@
       </c>
       <c r="I21" s="42"/>
       <c r="J21" s="41"/>
-      <c r="K21" s="64" t="s">
+      <c r="K21" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="65"/>
+      <c r="L21" s="62"/>
       <c r="M21" s="50" t="s">
         <v>68</v>
       </c>
@@ -5333,10 +5331,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="63"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="40" t="s">
         <v>204</v>
       </c>
@@ -5359,10 +5357,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="63"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="40"/>
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
@@ -5370,10 +5368,10 @@
       <c r="H23" s="42"/>
       <c r="I23" s="42"/>
       <c r="J23" s="41"/>
-      <c r="K23" s="64" t="s">
+      <c r="K23" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="65"/>
+      <c r="L23" s="62"/>
       <c r="M23" s="50" t="s">
         <v>230</v>
       </c>
@@ -5383,105 +5381,120 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="68"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="65"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="64" t="s">
+      <c r="G25" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="65"/>
-      <c r="I25" s="64" t="s">
+      <c r="H25" s="62"/>
+      <c r="I25" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="65"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="55"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="68"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="8">
         <v>1</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="H26" s="58"/>
+      <c r="H26" s="55"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="60"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="57"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="58"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="55"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="60"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
@@ -5498,30 +5511,15 @@
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5947,33 +5945,33 @@
       <c r="P14" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="72"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="71"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="29">
         <v>1</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="63"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="40" t="s">
         <v>177</v>
       </c>
@@ -5985,10 +5983,10 @@
       <c r="H17" s="40"/>
       <c r="I17" s="42"/>
       <c r="J17" s="41"/>
-      <c r="K17" s="64" t="s">
+      <c r="K17" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="65"/>
+      <c r="L17" s="62"/>
       <c r="M17" s="50" t="s">
         <v>176</v>
       </c>
@@ -5998,10 +5996,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="40" t="s">
         <v>178</v>
       </c>
@@ -6015,10 +6013,10 @@
       </c>
       <c r="I18" s="42"/>
       <c r="J18" s="41"/>
-      <c r="K18" s="64" t="s">
+      <c r="K18" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="65"/>
+      <c r="L18" s="62"/>
       <c r="M18" s="50" t="s">
         <v>68</v>
       </c>
@@ -6028,10 +6026,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="40"/>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -6050,10 +6048,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="40"/>
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
@@ -6061,10 +6059,10 @@
       <c r="H20" s="42"/>
       <c r="I20" s="42"/>
       <c r="J20" s="41"/>
-      <c r="K20" s="64" t="s">
+      <c r="K20" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="65"/>
+      <c r="L20" s="62"/>
       <c r="M20" s="50" t="s">
         <v>212</v>
       </c>
@@ -6074,109 +6072,116 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="68"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="65"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
       <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="62"/>
       <c r="F22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="64" t="s">
+      <c r="G22" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="65"/>
-      <c r="I22" s="64" t="s">
+      <c r="H22" s="62"/>
+      <c r="I22" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="65"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="55"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="68"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
       <c r="B23" s="8">
         <v>1</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="H23" s="58"/>
+      <c r="H23" s="55"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="60"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="57"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="58"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="55"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="60"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
     <mergeCell ref="A16:P16"/>
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="B17:C17"/>
@@ -6193,26 +6198,19 @@
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="M19:P19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-rule/model/nop-rule.orm.xlsx
+++ b/nop-rule/model/nop-rule.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92E0E99-B926-4779-BE90-B978BEF81498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7728FB1F-37FC-4744-84A4-4D4E10AA5F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="602" firstSheet="1" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="234">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -997,6 +997,14 @@
   </si>
   <si>
     <t>xml-16m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sortNo asc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3493,8 +3501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C32C7CF-B3F4-4DAF-B908-118F3127E9A6}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35:P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3781,7 +3789,9 @@
         <v>185</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J10" s="9" t="s">
         <v>28</v>
       </c>
@@ -4273,9 +4283,13 @@
       </c>
       <c r="I27" s="42"/>
       <c r="J27" s="41"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="50"/>
+      <c r="K27" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="L27" s="62"/>
+      <c r="M27" s="50" t="s">
+        <v>233</v>
+      </c>
       <c r="N27" s="51"/>
       <c r="O27" s="51"/>
       <c r="P27" s="52"/>
@@ -4475,8 +4489,10 @@
       </c>
       <c r="I35" s="42"/>
       <c r="J35" s="41"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="18"/>
+      <c r="K35" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="L35" s="62"/>
       <c r="M35" s="50"/>
       <c r="N35" s="51"/>
       <c r="O35" s="51"/>
@@ -4597,7 +4613,9 @@
       <c r="P40" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="86">
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K35:L35"/>
     <mergeCell ref="M38:P38"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="G40:H40"/>

--- a/nop-rule/model/nop-rule.orm.xlsx
+++ b/nop-rule/model/nop-rule.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7728FB1F-37FC-4744-84A4-4D4E10AA5F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781665C4-0AA7-4E56-B1CB-789CE1815F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="602" firstSheet="1" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="602" firstSheet="1" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="235">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1005,6 +1005,10 @@
   </si>
   <si>
     <t>sortNo asc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1405,6 +1409,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1429,12 +1448,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1447,12 +1460,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1460,9 +1467,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2721,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8E42C9-C05B-4E62-A510-6D91D5B4B214}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3011,7 +3015,7 @@
         <v>27</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -3501,7 +3505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C32C7CF-B3F4-4DAF-B908-118F3127E9A6}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M35" sqref="M35:P35"/>
     </sheetView>
   </sheetViews>
@@ -4183,33 +4187,33 @@
       <c r="P22" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="72"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="29">
         <v>1</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="60"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="40" t="s">
         <v>190</v>
       </c>
@@ -4223,10 +4227,10 @@
       </c>
       <c r="I25" s="42"/>
       <c r="J25" s="41"/>
-      <c r="K25" s="61" t="s">
+      <c r="K25" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="62"/>
+      <c r="L25" s="54"/>
       <c r="M25" s="50" t="s">
         <v>194</v>
       </c>
@@ -4236,10 +4240,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="60"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="40" t="s">
         <v>195</v>
       </c>
@@ -4253,10 +4257,10 @@
       </c>
       <c r="I26" s="42"/>
       <c r="J26" s="41"/>
-      <c r="K26" s="61" t="s">
+      <c r="K26" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="62"/>
+      <c r="L26" s="54"/>
       <c r="M26" s="50" t="s">
         <v>68</v>
       </c>
@@ -4266,10 +4270,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="60"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="40" t="s">
         <v>197</v>
       </c>
@@ -4283,10 +4287,10 @@
       </c>
       <c r="I27" s="42"/>
       <c r="J27" s="41"/>
-      <c r="K27" s="61" t="s">
+      <c r="K27" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="L27" s="62"/>
+      <c r="L27" s="54"/>
       <c r="M27" s="50" t="s">
         <v>233</v>
       </c>
@@ -4296,10 +4300,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="60"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="40"/>
       <c r="E28" s="42"/>
       <c r="F28" s="42"/>
@@ -4307,10 +4311,10 @@
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
       <c r="J28" s="41"/>
-      <c r="K28" s="61" t="s">
+      <c r="K28" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="62"/>
+      <c r="L28" s="54"/>
       <c r="M28" s="50" t="s">
         <v>179</v>
       </c>
@@ -4320,102 +4324,102 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="65"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="68"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="62"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="54"/>
       <c r="F30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="61" t="s">
+      <c r="G30" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="62"/>
-      <c r="I30" s="61" t="s">
+      <c r="H30" s="54"/>
+      <c r="I30" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="62"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="68"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="57"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="60"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="H31" s="55"/>
+      <c r="H31" s="60"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="57"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="62"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="55"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="55"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="60"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="57"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="62"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="29">
         <v>2</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="60"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="40" t="s">
         <v>177</v>
       </c>
@@ -4429,10 +4433,10 @@
       </c>
       <c r="I33" s="42"/>
       <c r="J33" s="41"/>
-      <c r="K33" s="61" t="s">
+      <c r="K33" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="62"/>
+      <c r="L33" s="54"/>
       <c r="M33" s="50" t="s">
         <v>176</v>
       </c>
@@ -4442,10 +4446,10 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="60"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="40" t="s">
         <v>178</v>
       </c>
@@ -4459,10 +4463,10 @@
       </c>
       <c r="I34" s="42"/>
       <c r="J34" s="41"/>
-      <c r="K34" s="61" t="s">
+      <c r="K34" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="L34" s="62"/>
+      <c r="L34" s="54"/>
       <c r="M34" s="50" t="s">
         <v>68</v>
       </c>
@@ -4472,10 +4476,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="60"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="40" t="s">
         <v>181</v>
       </c>
@@ -4489,10 +4493,10 @@
       </c>
       <c r="I35" s="42"/>
       <c r="J35" s="41"/>
-      <c r="K35" s="61" t="s">
+      <c r="K35" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="L35" s="62"/>
+      <c r="L35" s="54"/>
       <c r="M35" s="50"/>
       <c r="N35" s="51"/>
       <c r="O35" s="51"/>
@@ -4500,10 +4504,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="60"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="40"/>
       <c r="E36" s="42"/>
       <c r="F36" s="42"/>
@@ -4511,10 +4515,10 @@
       <c r="H36" s="42"/>
       <c r="I36" s="42"/>
       <c r="J36" s="41"/>
-      <c r="K36" s="61" t="s">
+      <c r="K36" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="62"/>
+      <c r="L36" s="54"/>
       <c r="M36" s="50" t="s">
         <v>179</v>
       </c>
@@ -4524,138 +4528,124 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="65"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="68"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="30"/>
       <c r="B38" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="66"/>
-      <c r="E38" s="62"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="54"/>
       <c r="F38" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="61" t="s">
+      <c r="G38" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="62"/>
-      <c r="I38" s="61" t="s">
+      <c r="H38" s="54"/>
+      <c r="I38" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="62"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="68"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="57"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="D39" s="54"/>
-      <c r="E39" s="55"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="53" t="s">
+      <c r="G39" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="H39" s="55"/>
+      <c r="H39" s="60"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="57"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="62"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="30"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="55"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="60"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="55"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="60"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="57"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A24:P24"/>
     <mergeCell ref="A25:A32"/>
@@ -4672,34 +4662,48 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M35:P35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5266,33 +5270,33 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="71"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="72"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="29">
         <v>1</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="60"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="40" t="s">
         <v>177</v>
       </c>
@@ -5306,10 +5310,10 @@
       </c>
       <c r="I20" s="42"/>
       <c r="J20" s="41"/>
-      <c r="K20" s="61" t="s">
+      <c r="K20" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="62"/>
+      <c r="L20" s="54"/>
       <c r="M20" s="50" t="s">
         <v>176</v>
       </c>
@@ -5319,10 +5323,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="60"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="40" t="s">
         <v>178</v>
       </c>
@@ -5336,10 +5340,10 @@
       </c>
       <c r="I21" s="42"/>
       <c r="J21" s="41"/>
-      <c r="K21" s="61" t="s">
+      <c r="K21" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="62"/>
+      <c r="L21" s="54"/>
       <c r="M21" s="50" t="s">
         <v>68</v>
       </c>
@@ -5349,10 +5353,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="60"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="40" t="s">
         <v>204</v>
       </c>
@@ -5375,10 +5379,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="60"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="40"/>
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
@@ -5386,10 +5390,10 @@
       <c r="H23" s="42"/>
       <c r="I23" s="42"/>
       <c r="J23" s="41"/>
-      <c r="K23" s="61" t="s">
+      <c r="K23" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="62"/>
+      <c r="L23" s="54"/>
       <c r="M23" s="50" t="s">
         <v>230</v>
       </c>
@@ -5399,104 +5403,121 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="65"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="68"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="62"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="61" t="s">
+      <c r="G25" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="62"/>
-      <c r="I25" s="61" t="s">
+      <c r="H25" s="54"/>
+      <c r="I25" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="62"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="68"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="57"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="8">
         <v>1</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="55"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="H26" s="55"/>
+      <c r="H26" s="60"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="57"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="60"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="55"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="60"/>
       <c r="I27" s="3"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="57"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="A19:P19"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="A20:A27"/>
@@ -5513,31 +5534,14 @@
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="M22:P22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5963,33 +5967,33 @@
       <c r="P14" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="72"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="29">
         <v>1</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="60"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="40" t="s">
         <v>177</v>
       </c>
@@ -6001,10 +6005,10 @@
       <c r="H17" s="40"/>
       <c r="I17" s="42"/>
       <c r="J17" s="41"/>
-      <c r="K17" s="61" t="s">
+      <c r="K17" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="62"/>
+      <c r="L17" s="54"/>
       <c r="M17" s="50" t="s">
         <v>176</v>
       </c>
@@ -6014,10 +6018,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="60"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="40" t="s">
         <v>178</v>
       </c>
@@ -6031,10 +6035,10 @@
       </c>
       <c r="I18" s="42"/>
       <c r="J18" s="41"/>
-      <c r="K18" s="61" t="s">
+      <c r="K18" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="62"/>
+      <c r="L18" s="54"/>
       <c r="M18" s="50" t="s">
         <v>68</v>
       </c>
@@ -6044,10 +6048,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="60"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="40"/>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
@@ -6066,10 +6070,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="60"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="40"/>
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
@@ -6077,10 +6081,10 @@
       <c r="H20" s="42"/>
       <c r="I20" s="42"/>
       <c r="J20" s="41"/>
-      <c r="K20" s="61" t="s">
+      <c r="K20" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="62"/>
+      <c r="L20" s="54"/>
       <c r="M20" s="50" t="s">
         <v>212</v>
       </c>
@@ -6090,116 +6094,109 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="65"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="68"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
       <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="62"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="54"/>
       <c r="F22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="62"/>
-      <c r="I22" s="61" t="s">
+      <c r="H22" s="54"/>
+      <c r="I22" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="62"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="68"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="57"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
       <c r="B23" s="8">
         <v>1</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="60"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="53" t="s">
+      <c r="G23" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="H23" s="55"/>
+      <c r="H23" s="60"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="57"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="62"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="55"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="55"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="60"/>
       <c r="I24" s="3"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="57"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A5:P5"/>
     <mergeCell ref="A16:P16"/>
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="B17:C17"/>
@@ -6216,19 +6213,26 @@
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
